--- a/Pontuacao_cnh.xlsx
+++ b/Pontuacao_cnh.xlsx
@@ -3321,26 +3321,26 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PWO5932,PWO5932,PWO5932,PWO5932</t>
+          <t>PWO5932,PWO5932,PWO5932,PWO5932,SWH3F39</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>659-92 - CONDUZIR O VEICULO REGISTRADO QUE NAO ESTEJA DEVIDAMENTE LICENCIADO,745-50 - TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20,574-62 - TRANSITAR EM LOCAL HORARIO NAO PERMITIDO PELA REGULAMENTACAO - RODIZIO,605-03 - AVANCAR O SINAL VERMELHO DO SEMAFORO EXC HOUVER SINALIZ PERM LIVRE CONV A DIREITA - FISC ELETRONIC</t>
+          <t>659-92 - CONDUZIR O VEICULO REGISTRADO QUE NAO ESTEJA DEVIDAMENTE LICENCIADO,745-50 - TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20,574-62 - TRANSITAR EM LOCAL HORARIO NAO PERMITIDO PELA REGULAMENTACAO - RODIZIO,605-03 - AVANCAR O SINAL VERMELHO DO SEMAFORO EXC HOUVER SINALIZ PERM LIVRE CONV A DIREITA - FISC ELETRONIC,745-50 - TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>01 10 2024 23:16,27 09 2024 03:00,30 09 2024 17:48,26 09 2024 20:42</t>
+          <t>01 10 2024 23:16,27 09 2024 03:00,30 09 2024 17:48,26 09 2024 20:42,27 10 2024 17:26</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ESTRADA DOS ALVARENGAS 5.500,AV JACU PESSEGO-N TRABAL (S MAT-S M,AVENIDA NOVE DE JULHO (BAIRRO-CENTR,AV JOAO RAMALHO X AV. PAPA JOAO XXI</t>
+          <t>ESTRADA DOS ALVARENGAS 5.500,AV JACU PESSEGO-N TRABAL (S MAT-S M,AVENIDA NOVE DE JULHO (BAIRRO-CENTR,AV JOAO RAMALHO X AV. PAPA JOAO XXI,AV JACU PESSEGO-NOVA TRABAL (MAUA-A</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -4652,33 +4652,31 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NAO CONSTA PONTUACAO PARA ESSE CONDUTOR</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>GXS7252</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>570-30 - DEIXAR DE CONSERVAR O VEICULO NA FAIXA A ELE DESTINADA PELA SINALIZACAO DEREGULAMENTACAO</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10/12/2024 11:28</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>SP 075 KM 030 METROS 000</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
